--- a/Visualization/results/CSDS_2979_CD1/No.2979241017CSDSDAY9homecage2024-12-06212712trace/No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
+++ b/Visualization/results/CSDS_2979_CD1/No.2979241017CSDSDAY9homecage2024-12-06212712trace/No.2979241017CSDSDAY9homecage2024-12-06212712trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,21 @@
           <t>transient_id</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>source_path</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>source_abs_path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -578,6 +593,21 @@
       <c r="Q2" t="n">
         <v>6931</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -637,6 +667,21 @@
       <c r="Q3" t="n">
         <v>6932</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -696,6 +741,21 @@
       <c r="Q4" t="n">
         <v>6933</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,6 +815,21 @@
       <c r="Q5" t="n">
         <v>6934</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -814,6 +889,21 @@
       <c r="Q6" t="n">
         <v>6935</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -872,6 +962,21 @@
       </c>
       <c r="Q7" t="n">
         <v>6936</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -932,6 +1037,21 @@
       <c r="Q8" t="n">
         <v>6937</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -991,6 +1111,21 @@
       <c r="Q9" t="n">
         <v>6938</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1050,6 +1185,21 @@
       <c r="Q10" t="n">
         <v>6939</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1109,6 +1259,21 @@
       <c r="Q11" t="n">
         <v>6940</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1168,6 +1333,21 @@
       <c r="Q12" t="n">
         <v>6941</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1227,6 +1407,21 @@
       <c r="Q13" t="n">
         <v>6942</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1285,6 +1480,21 @@
       </c>
       <c r="Q14" t="n">
         <v>6943</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1345,6 +1555,21 @@
       <c r="Q15" t="n">
         <v>6944</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1404,6 +1629,21 @@
       <c r="Q16" t="n">
         <v>6945</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1463,6 +1703,21 @@
       <c r="Q17" t="n">
         <v>6946</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1522,6 +1777,21 @@
       <c r="Q18" t="n">
         <v>6947</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1581,6 +1851,21 @@
       <c r="Q19" t="n">
         <v>6948</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1639,6 +1924,21 @@
       </c>
       <c r="Q20" t="n">
         <v>6949</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1699,6 +1999,21 @@
       <c r="Q21" t="n">
         <v>6950</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1758,6 +2073,21 @@
       <c r="Q22" t="n">
         <v>6951</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1816,6 +2146,21 @@
       </c>
       <c r="Q23" t="n">
         <v>6952</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1876,6 +2221,21 @@
       <c r="Q24" t="n">
         <v>6953</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1935,6 +2295,21 @@
       <c r="Q25" t="n">
         <v>6954</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1994,6 +2369,21 @@
       <c r="Q26" t="n">
         <v>6955</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2053,6 +2443,21 @@
       <c r="Q27" t="n">
         <v>6956</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,6 +2517,21 @@
       <c r="Q28" t="n">
         <v>6957</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2171,6 +2591,21 @@
       <c r="Q29" t="n">
         <v>6958</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2230,6 +2665,21 @@
       <c r="Q30" t="n">
         <v>6959</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2289,6 +2739,21 @@
       <c r="Q31" t="n">
         <v>6960</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2348,6 +2813,21 @@
       <c r="Q32" t="n">
         <v>6961</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2407,6 +2887,21 @@
       <c r="Q33" t="n">
         <v>6962</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2466,6 +2961,21 @@
       <c r="Q34" t="n">
         <v>6963</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2525,6 +3035,21 @@
       <c r="Q35" t="n">
         <v>6964</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2584,6 +3109,21 @@
       <c r="Q36" t="n">
         <v>6965</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2643,6 +3183,21 @@
       <c r="Q37" t="n">
         <v>6966</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2702,6 +3257,21 @@
       <c r="Q38" t="n">
         <v>6967</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2761,6 +3331,21 @@
       <c r="Q39" t="n">
         <v>6968</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2820,6 +3405,21 @@
       <c r="Q40" t="n">
         <v>6969</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2879,6 +3479,21 @@
       <c r="Q41" t="n">
         <v>6970</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2938,6 +3553,21 @@
       <c r="Q42" t="n">
         <v>6971</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2997,6 +3627,21 @@
       <c r="Q43" t="n">
         <v>6972</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3056,6 +3701,21 @@
       <c r="Q44" t="n">
         <v>6973</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3115,6 +3775,21 @@
       <c r="Q45" t="n">
         <v>6974</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3174,6 +3849,21 @@
       <c r="Q46" t="n">
         <v>6975</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3233,6 +3923,21 @@
       <c r="Q47" t="n">
         <v>6976</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3292,6 +3997,21 @@
       <c r="Q48" t="n">
         <v>6977</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3351,6 +4071,21 @@
       <c r="Q49" t="n">
         <v>6978</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3410,6 +4145,21 @@
       <c r="Q50" t="n">
         <v>6979</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3469,6 +4219,21 @@
       <c r="Q51" t="n">
         <v>6980</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3528,6 +4293,21 @@
       <c r="Q52" t="n">
         <v>6981</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3587,6 +4367,21 @@
       <c r="Q53" t="n">
         <v>6982</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3645,6 +4440,21 @@
       </c>
       <c r="Q54" t="n">
         <v>6983</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3705,6 +4515,21 @@
       <c r="Q55" t="n">
         <v>6984</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3764,6 +4589,21 @@
       <c r="Q56" t="n">
         <v>6985</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3823,6 +4663,21 @@
       <c r="Q57" t="n">
         <v>6986</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3882,6 +4737,21 @@
       <c r="Q58" t="n">
         <v>6987</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3941,6 +4811,21 @@
       <c r="Q59" t="n">
         <v>6988</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3999,6 +4884,21 @@
       </c>
       <c r="Q60" t="n">
         <v>6989</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\No.2979241017CSDSDAY9homecage2024-12-06212712trace.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
